--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2167707.269346131</v>
+        <v>-2169636.031249705</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3181294.395516922</v>
+        <v>3181294.395516923</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023555</v>
+        <v>228.0767087417152</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>221.2006630000037</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>107.3900407701659</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>49.7114959367476</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>160.1989433021658</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>26.51572092966556</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>178.0386406691708</v>
+        <v>128.1874051129076</v>
       </c>
       <c r="D5" t="n">
-        <v>331.2414836209412</v>
+        <v>331.2414836209389</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.97132048399257</v>
+        <v>14.97132048399258</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>201.4679039890861</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.6450715103051</v>
+        <v>221.6450715103052</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3191395453451</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.2414836209389</v>
       </c>
       <c r="X5" t="n">
-        <v>331.2414836209412</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>50.28901570682984</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>83.29140743632991</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>89.14820727672647</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.4499895666097</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>163.6100990340626</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>8.224704971239385</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>150.9797950037985</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>82.84875757593909</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.706548481199791</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.3103960897004</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>201.8490979649062</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>15.82593128898499</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>128.7314192465377</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>81.65119102350346</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>98.20948901158022</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>101.0041688483412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>33.59950865297263</v>
+        <v>6.924765229694266</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>153.7693996663708</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>157.6583926250992</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>29.18937547121085</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151912</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>6.30003116274762</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C28" t="n">
-        <v>60.13519694214595</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0138447039338</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.8919401490991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>121.3122000532576</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.81761714999345</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.36272408951424</v>
       </c>
       <c r="S28" t="n">
         <v>170.3191816693247</v>
@@ -2770,16 +2770,16 @@
         <v>258.6357240842988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9213700223125</v>
+        <v>258.9213700223124</v>
       </c>
       <c r="X28" t="n">
         <v>198.1080270747586</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>65.04170803170751</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C31" t="n">
         <v>139.6451927843493</v>
@@ -2956,19 +2956,19 @@
         <v>121.0138447039338</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322907</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>117.8194197086527</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>138.891940149099</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.3122000532576</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.81761714999344</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.36272408951427</v>
+        <v>82.36272408951424</v>
       </c>
       <c r="S31" t="n">
         <v>170.3191816693247</v>
       </c>
       <c r="T31" t="n">
-        <v>193.9459327441107</v>
+        <v>145.8892330039895</v>
       </c>
       <c r="U31" t="n">
         <v>258.6357240842988</v>
       </c>
       <c r="V31" t="n">
-        <v>224.5360150095495</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>176.9906654672104</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>190.9830250378162</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.6019515338385</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,7 +3272,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426199</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
@@ -3284,7 +3284,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
         <v>281.1090785877724</v>
@@ -3332,7 +3332,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338385</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3521,7 +3521,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555822</v>
       </c>
       <c r="T38" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W38" t="n">
         <v>281.1090785877724</v>
@@ -3569,7 +3569,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.6019515338385</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3758,7 +3758,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W41" t="n">
         <v>281.1090785877724</v>
@@ -3806,7 +3806,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C44" t="n">
         <v>297.1410016413669</v>
@@ -3983,7 +3983,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E44" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F44" t="n">
         <v>338.7441556120708</v>
@@ -3995,7 +3995,7 @@
         <v>237.155358981677</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310008</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555816</v>
+        <v>64.81847467555818</v>
       </c>
       <c r="T44" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
         <v>182.9467051201603</v>
@@ -4037,7 +4037,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X44" t="n">
         <v>301.5992105488284</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.6800813726992</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C2" t="n">
         <v>546.7341079359765</v>
       </c>
       <c r="D2" t="n">
-        <v>267.7881344992537</v>
+        <v>316.353594055456</v>
       </c>
       <c r="E2" t="n">
-        <v>267.7881344992537</v>
+        <v>316.353594055456</v>
       </c>
       <c r="F2" t="n">
-        <v>260.8426337500503</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>245.5275342275053</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4364,16 +4364,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726992</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.6800813726992</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.9547486953</v>
+        <v>535.5144319327409</v>
       </c>
       <c r="C3" t="n">
-        <v>279.501719414173</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5673097529217</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5673097529217</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5673097529217</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5673097529217</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>159.4923828364511</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>432.8873314017831</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N3" t="n">
-        <v>706.282279967115</v>
+        <v>958.7443668768126</v>
       </c>
       <c r="O3" t="n">
-        <v>972.7790935503988</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>957.9671256810104</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>957.9671256810104</v>
       </c>
       <c r="U3" t="n">
-        <v>876.4074424435696</v>
+        <v>957.9671256810104</v>
       </c>
       <c r="V3" t="n">
-        <v>876.4074424435696</v>
+        <v>957.9671256810104</v>
       </c>
       <c r="W3" t="n">
-        <v>622.170085715368</v>
+        <v>703.7297689528089</v>
       </c>
       <c r="X3" t="n">
-        <v>622.170085715368</v>
+        <v>703.7297689528089</v>
       </c>
       <c r="Y3" t="n">
-        <v>622.170085715368</v>
+        <v>703.7297689528089</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>562.9917333521157</v>
+        <v>512.6369499619483</v>
       </c>
       <c r="C5" t="n">
-        <v>383.1547225751755</v>
+        <v>383.154722575173</v>
       </c>
       <c r="D5" t="n">
-        <v>48.56736538230561</v>
+        <v>48.56736538230543</v>
       </c>
       <c r="E5" t="n">
-        <v>48.56736538230561</v>
+        <v>48.56736538230543</v>
       </c>
       <c r="F5" t="n">
-        <v>41.62186463310213</v>
+        <v>41.62186463310196</v>
       </c>
       <c r="G5" t="n">
-        <v>26.49931868967529</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="H5" t="n">
-        <v>26.49931868967529</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="I5" t="n">
-        <v>26.49931868967529</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="J5" t="n">
-        <v>42.5168424130685</v>
+        <v>42.51684241306759</v>
       </c>
       <c r="K5" t="n">
-        <v>187.2677626074291</v>
+        <v>187.2677626074272</v>
       </c>
       <c r="L5" t="n">
-        <v>419.1207064026842</v>
+        <v>419.1207064026811</v>
       </c>
       <c r="M5" t="n">
-        <v>693.7083251274892</v>
+        <v>693.7083251274847</v>
       </c>
       <c r="N5" t="n">
-        <v>958.1070610499656</v>
+        <v>958.1070610499598</v>
       </c>
       <c r="O5" t="n">
-        <v>1162.583652085462</v>
+        <v>1162.583652085455</v>
       </c>
       <c r="P5" t="n">
-        <v>1299.425308893595</v>
+        <v>1299.425308893586</v>
       </c>
       <c r="Q5" t="n">
-        <v>1324.965934483765</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="R5" t="n">
-        <v>1324.965934483765</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="S5" t="n">
-        <v>1121.463001161455</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="T5" t="n">
-        <v>897.5790905449855</v>
+        <v>1101.082023867286</v>
       </c>
       <c r="U5" t="n">
-        <v>897.5790905449855</v>
+        <v>847.2243071548158</v>
       </c>
       <c r="V5" t="n">
-        <v>897.5790905449855</v>
+        <v>847.2243071548158</v>
       </c>
       <c r="W5" t="n">
-        <v>897.5790905449855</v>
+        <v>512.6369499619483</v>
       </c>
       <c r="X5" t="n">
-        <v>562.9917333521157</v>
+        <v>512.6369499619483</v>
       </c>
       <c r="Y5" t="n">
-        <v>562.9917333521157</v>
+        <v>512.6369499619483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406.1010211082132</v>
+        <v>251.7493335332565</v>
       </c>
       <c r="C6" t="n">
-        <v>406.1010211082132</v>
+        <v>77.29630425212949</v>
       </c>
       <c r="D6" t="n">
-        <v>257.166611446962</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="E6" t="n">
-        <v>257.166611446962</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="F6" t="n">
-        <v>110.6320534738469</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="G6" t="n">
-        <v>110.6320534738469</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="H6" t="n">
-        <v>110.6320534738469</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="I6" t="n">
-        <v>26.49931868967529</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="J6" t="n">
-        <v>26.49931868967529</v>
+        <v>42.3458664053019</v>
       </c>
       <c r="K6" t="n">
-        <v>26.49931868967529</v>
+        <v>196.0509835671029</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7830246817182</v>
+        <v>196.0509835671029</v>
       </c>
       <c r="M6" t="n">
-        <v>614.7120934664499</v>
+        <v>523.9800523518323</v>
       </c>
       <c r="N6" t="n">
-        <v>942.6411622511816</v>
+        <v>818.2786641186781</v>
       </c>
       <c r="O6" t="n">
-        <v>1233.162507731476</v>
+        <v>1108.800009598971</v>
       </c>
       <c r="P6" t="n">
-        <v>1233.162507731476</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="Q6" t="n">
-        <v>1324.965934483765</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="R6" t="n">
-        <v>1234.917240264849</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.917240264849</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.452604338981</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="U6" t="n">
-        <v>1033.452604338981</v>
+        <v>1324.965934483756</v>
       </c>
       <c r="V6" t="n">
-        <v>868.1898780419476</v>
+        <v>1089.813826252013</v>
       </c>
       <c r="W6" t="n">
-        <v>613.952521313746</v>
+        <v>835.5764695238113</v>
       </c>
       <c r="X6" t="n">
-        <v>406.1010211082132</v>
+        <v>627.7249693182785</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.1010211082132</v>
+        <v>419.9646705533245</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="C7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="D7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="E7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="F7" t="n">
-        <v>26.49931868967529</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="G7" t="n">
-        <v>26.49931868967529</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="H7" t="n">
-        <v>26.49931868967529</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="I7" t="n">
-        <v>26.49931868967529</v>
+        <v>111.9087187473912</v>
       </c>
       <c r="J7" t="n">
-        <v>26.49931868967529</v>
+        <v>28.22310503432136</v>
       </c>
       <c r="K7" t="n">
-        <v>26.49931868967529</v>
+        <v>26.49931868967511</v>
       </c>
       <c r="L7" t="n">
-        <v>75.69444867730999</v>
+        <v>75.6944486773093</v>
       </c>
       <c r="M7" t="n">
-        <v>137.9529386775785</v>
+        <v>137.9529386775773</v>
       </c>
       <c r="N7" t="n">
-        <v>204.1656773620611</v>
+        <v>204.1656773620593</v>
       </c>
       <c r="O7" t="n">
-        <v>249.3075628649941</v>
+        <v>249.3075628649918</v>
       </c>
       <c r="P7" t="n">
-        <v>264.4135621855741</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="Q7" t="n">
-        <v>264.4135621855741</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="R7" t="n">
-        <v>264.4135621855741</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="S7" t="n">
-        <v>264.4135621855741</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="T7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="U7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="V7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="W7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="X7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.80710148890699</v>
+        <v>264.4135621855714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.223260609829</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C8" t="n">
-        <v>829.2607436694175</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D8" t="n">
-        <v>829.2607436694175</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="E8" t="n">
-        <v>829.2607436694175</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>487.8925791029705</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>69.92877100115737</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>69.92877100115737</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,13 +5066,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>199.2415044384083</v>
+        <v>959.9316061372624</v>
       </c>
       <c r="C13" t="n">
-        <v>199.2415044384083</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>199.2415044384082</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188989</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>420.0340835819384</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X13" t="n">
-        <v>420.0340835819384</v>
+        <v>959.9316061372624</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.2415044384083</v>
+        <v>959.9316061372624</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,31 +5270,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529252</v>
+        <v>861.4909633328888</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529252</v>
+        <v>692.5547804049819</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405894</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1241.191957718143</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="W16" t="n">
-        <v>951.7747876811823</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="X16" t="n">
-        <v>723.7852367831649</v>
+        <v>1263.932007306659</v>
       </c>
       <c r="Y16" t="n">
-        <v>723.7852367831649</v>
+        <v>1043.139428163129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>653.9727323706984</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>653.9727323706984</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>653.9727323706984</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1232.518541194101</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247861</v>
+        <v>1232.518541194101</v>
       </c>
       <c r="U19" t="n">
-        <v>804.8848401832718</v>
+        <v>943.3899024076591</v>
       </c>
       <c r="V19" t="n">
-        <v>804.8848401832718</v>
+        <v>943.3899024076591</v>
       </c>
       <c r="W19" t="n">
-        <v>804.8848401832718</v>
+        <v>653.9727323706984</v>
       </c>
       <c r="X19" t="n">
-        <v>576.8952892852544</v>
+        <v>653.9727323706984</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.8952892852544</v>
+        <v>653.9727323706984</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5756,13 +5756,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,16 +5832,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O21" t="n">
         <v>2123.441607278215</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,19 +5926,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
         <v>869.3083006011507</v>
@@ -5950,10 +5950,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,25 +6008,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>315.6192635197069</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>929.5163332765956</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.836466556557</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>738.7219969042602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>569.7858139763533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>419.6691745640176</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>271.7560809816245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>271.7560809816245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>103.5807593014451</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6251,10 +6251,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>452.0983189327497</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>698.8634468392138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1006.183580119176</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>626.6825449940535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>565.9399218201687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>443.7037150485183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>443.7037150485183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>443.7037150485183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>303.4088260090243</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>180.871250197653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>136.9253959553315</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310785</v>
+        <v>314.4364122310787</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733435</v>
+        <v>589.4740692733437</v>
       </c>
       <c r="M28" t="n">
-        <v>888.3664240716621</v>
+        <v>888.3664240716622</v>
       </c>
       <c r="N28" t="n">
         <v>1186.236145130345</v>
@@ -6403,31 +6403,31 @@
         <v>1651.362111803697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806988</v>
+        <v>1717.521166806989</v>
       </c>
       <c r="R28" t="n">
-        <v>1717.521166806988</v>
+        <v>1634.326496009499</v>
       </c>
       <c r="S28" t="n">
-        <v>1545.481589363226</v>
+        <v>1462.286918565737</v>
       </c>
       <c r="T28" t="n">
-        <v>1349.576606793417</v>
+        <v>1266.381935995928</v>
       </c>
       <c r="U28" t="n">
-        <v>1088.328400647661</v>
+        <v>1005.133729850171</v>
       </c>
       <c r="V28" t="n">
-        <v>1088.328400647661</v>
+        <v>778.32967428497</v>
       </c>
       <c r="W28" t="n">
-        <v>826.7916632513854</v>
+        <v>516.7929368886948</v>
       </c>
       <c r="X28" t="n">
-        <v>626.6825449940535</v>
+        <v>316.6838186313629</v>
       </c>
       <c r="Y28" t="n">
-        <v>626.6825449940535</v>
+        <v>250.9851236498401</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>932.1883377003199</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>599.5512243180906</v>
+        <v>706.9956721073901</v>
       </c>
       <c r="C31" t="n">
-        <v>458.495474030869</v>
+        <v>565.9399218201686</v>
       </c>
       <c r="D31" t="n">
-        <v>336.2592672592186</v>
+        <v>443.7037150485182</v>
       </c>
       <c r="E31" t="n">
-        <v>216.2266063175109</v>
+        <v>443.7037150485182</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>443.7037150485182</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>303.4088260090242</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>180.8712501976529</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9253959553314</v>
+        <v>136.9253959553315</v>
       </c>
       <c r="K31" t="n">
         <v>314.4364122310786</v>
       </c>
       <c r="L31" t="n">
-        <v>589.4740692733437</v>
+        <v>589.4740692733436</v>
       </c>
       <c r="M31" t="n">
-        <v>888.3664240716623</v>
+        <v>888.3664240716621</v>
       </c>
       <c r="N31" t="n">
-        <v>1186.236145130346</v>
+        <v>1186.236145130345</v>
       </c>
       <c r="O31" t="n">
         <v>1447.436735166878</v>
@@ -6649,22 +6649,22 @@
         <v>1462.286918565737</v>
       </c>
       <c r="T31" t="n">
-        <v>1266.381935995928</v>
+        <v>1314.924056945546</v>
       </c>
       <c r="U31" t="n">
-        <v>1005.133729850171</v>
+        <v>1053.675850799789</v>
       </c>
       <c r="V31" t="n">
-        <v>778.3296742849699</v>
+        <v>1053.675850799789</v>
       </c>
       <c r="W31" t="n">
-        <v>778.3296742849699</v>
+        <v>1053.675850799789</v>
       </c>
       <c r="X31" t="n">
-        <v>599.5512243180906</v>
+        <v>1053.675850799789</v>
       </c>
       <c r="Y31" t="n">
-        <v>599.5512243180906</v>
+        <v>860.7637042969444</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E35" t="n">
         <v>1018.957177436856</v>
@@ -6929,34 +6929,34 @@
         <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I35" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>177.4083093538499</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>700.8111679228796</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L35" t="n">
-        <v>988.9307215617318</v>
+        <v>1156.336370582085</v>
       </c>
       <c r="M35" t="n">
-        <v>1653.376682196073</v>
+        <v>1953.612724301976</v>
       </c>
       <c r="N35" t="n">
-        <v>2448.921803300103</v>
+        <v>2316.184390238142</v>
       </c>
       <c r="O35" t="n">
-        <v>3154.944864324299</v>
+        <v>2895.591279040995</v>
       </c>
       <c r="P35" t="n">
-        <v>3401.264108490334</v>
+        <v>3460.491244296798</v>
       </c>
       <c r="Q35" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R35" t="n">
         <v>3807.4858326055</v>
@@ -7014,28 +7014,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>266.7104780195275</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L36" t="n">
-        <v>513.4756059259915</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M36" t="n">
-        <v>1281.843752318453</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N36" t="n">
-        <v>1822.834167251342</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.374232470039</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q36" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026569</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C37" t="n">
-        <v>538.276772414791</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001443</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021371</v>
+        <v>200.462134402137</v>
       </c>
       <c r="H37" t="n">
         <v>118.8642169901215</v>
@@ -7093,10 +7093,10 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L37" t="n">
         <v>688.7815720567933</v>
@@ -7166,34 +7166,34 @@
         <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K38" t="n">
-        <v>868.2168169432326</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L38" t="n">
-        <v>1156.336370582085</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M38" t="n">
-        <v>1953.612724301976</v>
+        <v>1754.673279528664</v>
       </c>
       <c r="N38" t="n">
-        <v>2316.184390238142</v>
+        <v>2508.148939106567</v>
       </c>
       <c r="O38" t="n">
-        <v>3022.207451262338</v>
+        <v>3214.172000130763</v>
       </c>
       <c r="P38" t="n">
-        <v>3587.107416518141</v>
+        <v>3460.491244296798</v>
       </c>
       <c r="Q38" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R38" t="n">
         <v>3807.4858326055</v>
@@ -7208,16 +7208,16 @@
         <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>242.4709188044724</v>
       </c>
       <c r="K39" t="n">
-        <v>391.5406030065323</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3057309129963</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M39" t="n">
-        <v>945.625864192958</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.532541156295</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O39" t="n">
-        <v>1995.072606374992</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.373228110739</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q39" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147911</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424964</v>
+        <v>456.980224042497</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001444</v>
+        <v>377.8872215001449</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422751</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901211</v>
+        <v>118.8642169901216</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443643</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173199</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
@@ -7351,19 +7351,19 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178346</v>
+        <v>1975.198453178348</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.098534133939</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963486</v>
+        <v>1689.133209963488</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V40" t="n">
         <v>1282.960265051241</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
@@ -7412,22 +7412,22 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>547.3128584977795</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L41" t="n">
-        <v>1248.917014541578</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M41" t="n">
-        <v>1977.961257027475</v>
+        <v>2086.350137363937</v>
       </c>
       <c r="N41" t="n">
-        <v>2340.532922963641</v>
+        <v>2448.921803300103</v>
       </c>
       <c r="O41" t="n">
-        <v>3046.555983987837</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P41" t="n">
-        <v>3611.45594924364</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q41" t="n">
         <v>3748.258696799037</v>
@@ -7445,16 +7445,16 @@
         <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>169.6131540943897</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K42" t="n">
-        <v>318.6828382964495</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L42" t="n">
-        <v>932.5799080533382</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M42" t="n">
-        <v>1700.9480544458</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N42" t="n">
-        <v>2030.810682109832</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O42" t="n">
-        <v>2310.350747328529</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.373228110739</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q42" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7552,16 +7552,16 @@
         <v>456.9802240424967</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422753</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G43" t="n">
         <v>200.462134402137</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901213</v>
       </c>
       <c r="I43" t="n">
         <v>76.14971665211002</v>
@@ -7576,13 +7576,13 @@
         <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N43" t="n">
         <v>1365.793566308212</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P43" t="n">
         <v>1911.16945137598</v>
@@ -7600,7 +7600,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7609,7 +7609,7 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y43" t="n">
         <v>751.2212380928559</v>
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C44" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E44" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436857</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872892</v>
+        <v>676.7913636872901</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922883</v>
+        <v>329.4856801922892</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I44" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432326</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L44" t="n">
-        <v>1156.336370582085</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M44" t="n">
-        <v>1508.594326144071</v>
+        <v>1863.568522949378</v>
       </c>
       <c r="N44" t="n">
-        <v>2304.139447248102</v>
+        <v>2659.113644053409</v>
       </c>
       <c r="O44" t="n">
-        <v>3010.162508272298</v>
+        <v>3365.136705077605</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490334</v>
+        <v>3611.45594924364</v>
       </c>
       <c r="Q44" t="n">
         <v>3748.258696799037</v>
@@ -7676,22 +7676,22 @@
         <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>391.5406030065323</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3057309129963</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M45" t="n">
-        <v>945.625864192958</v>
+        <v>1226.399103845682</v>
       </c>
       <c r="N45" t="n">
-        <v>1750.037442457109</v>
+        <v>2030.810682109832</v>
       </c>
       <c r="O45" t="n">
-        <v>2029.577507675806</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P45" t="n">
-        <v>2504.743216013439</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422749</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.982980344364</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
         <v>688.7815720567933</v>
@@ -7849,7 +7849,7 @@
         <v>903.1937261963446</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928557</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>272.0288590235228</v>
       </c>
       <c r="P3" t="n">
-        <v>173.0575064623238</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>110.08442148624</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>109.2075429097487</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>362.965407214151</v>
+        <v>100.0525728787551</v>
       </c>
       <c r="M6" t="n">
-        <v>428.4457249022626</v>
+        <v>428.4457249022614</v>
       </c>
       <c r="N6" t="n">
-        <v>416.4642451451488</v>
+        <v>382.4940865412246</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>100.1133495643967</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>117.3465536426285</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>158.8724419039329</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>213.2603911806622</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>308.1251096272028</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.12263706262991</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>39.88923345256737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>253.7371603504735</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>315.3414192650043</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>252.9050578068434</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>394.8525188300371</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>24.59447750050447</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>444.4889386861657</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>380.5922090140514</v>
+        <v>165.9305139544645</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>52.49733361305256</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>109.995195374459</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11312,10 +11312,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>146.2448040929306</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>272.8719470256806</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>69.03733208704762</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.42979379822798</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>218.5381346708554</v>
+        <v>245.2128780941337</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.1514103172326</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>128.5789597734781</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338615</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>142.6137972047885</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.2303518676588</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>79.50999584220338</v>
+        <v>139.6451927843493</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.0138447039338</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322907</v>
+        <v>118.8323343322906</v>
       </c>
       <c r="F28" t="n">
         <v>117.8194197086527</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.891940149099</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.3122000532576</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.81761714999344</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.36272408951427</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>224.5360150095495</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.9830250378163</v>
+        <v>125.9413170061087</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.2303518676588</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.8323343322906</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G31" t="n">
-        <v>138.8919401490991</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>121.3122000532576</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>82.81761714999345</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24889,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>48.05669974012118</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9213700223125</v>
+        <v>258.9213700223124</v>
       </c>
       <c r="X31" t="n">
-        <v>21.11736160754818</v>
+        <v>198.1080270747586</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9830250378163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1352720.977913914</v>
+        <v>1352720.977913915</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
         <v>58654.35896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065627</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="G2" t="n">
-        <v>58654.35896065627</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="H2" t="n">
         <v>58654.35896065628</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.35896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>59838.83978122345</v>
+        <v>59838.83978122344</v>
       </c>
       <c r="K2" t="n">
-        <v>59838.83978122345</v>
+        <v>59838.83978122346</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="N2" t="n">
-        <v>61578.13273982124</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>60975.92555039021</v>
+        <v>60975.92555038776</v>
       </c>
       <c r="D3" t="n">
-        <v>359462.517329809</v>
+        <v>359462.5173298114</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94335.99752256184</v>
+        <v>94335.99752256191</v>
       </c>
       <c r="K3" t="n">
-        <v>14177.10853800661</v>
+        <v>14177.10853800598</v>
       </c>
       <c r="L3" t="n">
-        <v>119246.0112699053</v>
+        <v>119246.0112699059</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762899</v>
+        <v>69175.08933762896</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22081.30265142282</v>
+        <v>22081.30265142284</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>299668.3554259903</v>
+        <v>299668.355425991</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26430,34 +26430,34 @@
         <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316553</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="H4" t="n">
+        <v>43561.42148316555</v>
+      </c>
+      <c r="I4" t="n">
         <v>43561.42148316556</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43561.42148316552</v>
       </c>
       <c r="J4" t="n">
         <v>52643.73274026382</v>
       </c>
       <c r="K4" t="n">
-        <v>52643.73274026382</v>
+        <v>52643.73274026383</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.208724486</v>
       </c>
       <c r="M4" t="n">
         <v>99837.12979766788</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766788</v>
+        <v>99837.12979766786</v>
       </c>
       <c r="O4" t="n">
         <v>99837.12979766788</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.1297976678</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>55564.2739097811</v>
+        <v>55564.27390978091</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,10 +26494,10 @@
         <v>94307.76723946971</v>
       </c>
       <c r="K5" t="n">
-        <v>94307.76723946973</v>
+        <v>94307.76723946971</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>81703.90096581174</v>
@@ -26522,40 +26522,40 @@
         <v>-432823.5566606841</v>
       </c>
       <c r="C6" t="n">
-        <v>-354630.4221463404</v>
+        <v>-354630.4221463384</v>
       </c>
       <c r="D6" t="n">
-        <v>-572950.059045827</v>
+        <v>-572950.0590458293</v>
       </c>
       <c r="E6" t="n">
-        <v>-602054.424948122</v>
+        <v>-602151.8840740941</v>
       </c>
       <c r="F6" t="n">
-        <v>-76894.38847122593</v>
+        <v>-76991.84759719804</v>
       </c>
       <c r="G6" t="n">
-        <v>-76894.38847122589</v>
+        <v>-76991.84759719808</v>
       </c>
       <c r="H6" t="n">
-        <v>-76894.38847122592</v>
+        <v>-76991.84759719807</v>
       </c>
       <c r="I6" t="n">
-        <v>-76894.38847122587</v>
+        <v>-76991.84759719807</v>
       </c>
       <c r="J6" t="n">
-        <v>-181448.6577210719</v>
+        <v>-181506.6341530253</v>
       </c>
       <c r="K6" t="n">
-        <v>-101289.7687365167</v>
+        <v>-101347.7451684693</v>
       </c>
       <c r="L6" t="n">
-        <v>-221363.1930745954</v>
+        <v>-221363.1930745961</v>
       </c>
       <c r="M6" t="n">
         <v>-189137.9873612873</v>
       </c>
       <c r="N6" t="n">
-        <v>-119962.8980236584</v>
+        <v>-119962.8980236583</v>
       </c>
       <c r="O6" t="n">
         <v>-142044.2006750812</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.43998649669159</v>
+        <v>82.43998649668964</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>331.2414836209412</v>
+        <v>331.2414836209389</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.53026181536216</v>
+        <v>40.53026181536212</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>47.41872577756625</v>
+        <v>47.41872577756435</v>
       </c>
       <c r="D3" t="n">
-        <v>295.3036777203951</v>
+        <v>295.303677720397</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370137</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>55.08496991858565</v>
+        <v>55.08496991858343</v>
       </c>
       <c r="D4" t="n">
-        <v>343.0457891336144</v>
+        <v>343.0457891336167</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858588</v>
+        <v>55.08496991858343</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336142</v>
+        <v>343.0457891336169</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968195</v>
+        <v>277.5841853968193</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858565</v>
+        <v>55.08496991858343</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336144</v>
+        <v>343.0457891336167</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832747</v>
+        <v>126.6063328789677</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>116.8322838942971</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27436,13 +27436,13 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.117886333278534</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>120.5724766845855</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>7.728882963192888</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>201.1600325553702</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>187.2342511018367</v>
+        <v>237.0854866581</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4415579997418</v>
+        <v>23.44155799974408</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>336.0806774455792</v>
+        <v>336.0806774455793</v>
       </c>
       <c r="I5" t="n">
-        <v>197.6989344772855</v>
+        <v>197.6989344772858</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>129.0507428586459</v>
+        <v>129.0507428586464</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>201.4679039890863</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3191395453451</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.99948509647413</v>
       </c>
       <c r="X5" t="n">
-        <v>38.48961705752788</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>97.15604985780891</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.1661934186706</v>
       </c>
       <c r="H6" t="n">
-        <v>110.5228701773859</v>
+        <v>110.522870177386</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>83.29140743633005</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>89.14820727672672</v>
       </c>
       <c r="S6" t="n">
-        <v>168.3894603225785</v>
+        <v>168.3894603225786</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.4499895666097</v>
       </c>
       <c r="U6" t="n">
         <v>225.9297160451498</v>
       </c>
       <c r="V6" t="n">
-        <v>69.19048811536265</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>137.1963430516919</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.842317087727</v>
@@ -27792,13 +27792,13 @@
         <v>160.9054297731156</v>
       </c>
       <c r="I7" t="n">
-        <v>150.9797950037984</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>82.84875757593883</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.997638917231736</v>
+        <v>3.29109043603235</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.71360529069395</v>
+        <v>73.71360529069425</v>
       </c>
       <c r="R7" t="n">
-        <v>170.6089950949951</v>
+        <v>170.6089950949953</v>
       </c>
       <c r="S7" t="n">
-        <v>221.4258201006746</v>
+        <v>221.4258201006747</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.3103960897004</v>
       </c>
       <c r="U7" t="n">
         <v>286.3109205053601</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>205.0269477768052</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.1053849558762</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>16.68962877639353</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28059,10 +28059,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>143.3839144345808</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427852</v>
+        <v>27.60162831427855</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964204</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964187</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964204</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964204</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3314170311424785</v>
+        <v>0.3314170311424707</v>
       </c>
       <c r="H5" t="n">
-        <v>3.394124670187909</v>
+        <v>3.394124670187828</v>
       </c>
       <c r="I5" t="n">
-        <v>12.77695509312042</v>
+        <v>12.77695509312011</v>
       </c>
       <c r="J5" t="n">
-        <v>28.12860624692896</v>
+        <v>28.1286062469283</v>
       </c>
       <c r="K5" t="n">
-        <v>42.15748917519008</v>
+        <v>42.15748917518908</v>
       </c>
       <c r="L5" t="n">
-        <v>52.30009314201672</v>
+        <v>52.30009314201548</v>
       </c>
       <c r="M5" t="n">
-        <v>58.19393076959677</v>
+        <v>58.1939307695954</v>
       </c>
       <c r="N5" t="n">
-        <v>59.13556940933034</v>
+        <v>59.13556940932894</v>
       </c>
       <c r="O5" t="n">
-        <v>55.84004130590732</v>
+        <v>55.840041305906</v>
       </c>
       <c r="P5" t="n">
-        <v>47.65818334957737</v>
+        <v>47.65818334957625</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.78931092178735</v>
+        <v>35.7893109217865</v>
       </c>
       <c r="R5" t="n">
-        <v>20.81837508250374</v>
+        <v>20.81837508250324</v>
       </c>
       <c r="S5" t="n">
-        <v>7.552165597159236</v>
+        <v>7.552165597159058</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4507780538262</v>
+        <v>1.450778053826166</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02651336249139827</v>
+        <v>0.02651336249139765</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1773237445400536</v>
+        <v>0.1773237445400494</v>
       </c>
       <c r="H6" t="n">
-        <v>1.712574059110518</v>
+        <v>1.712574059110478</v>
       </c>
       <c r="I6" t="n">
-        <v>6.105225415085179</v>
+        <v>6.105225415085036</v>
       </c>
       <c r="J6" t="n">
-        <v>16.75320518042673</v>
+        <v>16.75320518042634</v>
       </c>
       <c r="K6" t="n">
-        <v>28.63389606461033</v>
+        <v>28.63389606460965</v>
       </c>
       <c r="L6" t="n">
-        <v>38.50180690111998</v>
+        <v>38.50180690111907</v>
       </c>
       <c r="M6" t="n">
-        <v>44.92979264069691</v>
+        <v>44.92979264069585</v>
       </c>
       <c r="N6" t="n">
-        <v>46.11895055912561</v>
+        <v>46.11895055912452</v>
       </c>
       <c r="O6" t="n">
-        <v>42.18982969326442</v>
+        <v>42.18982969326343</v>
       </c>
       <c r="P6" t="n">
-        <v>33.86105784993357</v>
+        <v>33.86105784993278</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.63522044339351</v>
+        <v>22.63522044339298</v>
       </c>
       <c r="R6" t="n">
-        <v>11.00962687591667</v>
+        <v>11.00962687591641</v>
       </c>
       <c r="S6" t="n">
-        <v>3.293710781259327</v>
+        <v>3.293710781259249</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7147391282118825</v>
+        <v>0.7147391282118656</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01166603582500353</v>
+        <v>0.01166603582500326</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1486622707317389</v>
+        <v>0.1486622707317354</v>
       </c>
       <c r="H7" t="n">
-        <v>1.321742734324007</v>
+        <v>1.321742734323976</v>
       </c>
       <c r="I7" t="n">
-        <v>4.470679923459931</v>
+        <v>4.470679923459826</v>
       </c>
       <c r="J7" t="n">
-        <v>10.51042254073394</v>
+        <v>10.51042254073369</v>
       </c>
       <c r="K7" t="n">
-        <v>17.27185290865112</v>
+        <v>17.27185290865071</v>
       </c>
       <c r="L7" t="n">
-        <v>22.10202523224417</v>
+        <v>22.10202523224365</v>
       </c>
       <c r="M7" t="n">
-        <v>23.30348667479431</v>
+        <v>23.30348667479376</v>
       </c>
       <c r="N7" t="n">
-        <v>22.74938184752148</v>
+        <v>22.74938184752094</v>
       </c>
       <c r="O7" t="n">
-        <v>21.01273623033707</v>
+        <v>21.01273623033657</v>
       </c>
       <c r="P7" t="n">
-        <v>17.98002590740958</v>
+        <v>17.98002590740915</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.44843796100043</v>
+        <v>12.44843796100013</v>
       </c>
       <c r="R7" t="n">
-        <v>6.684396282174368</v>
+        <v>6.68439628217421</v>
       </c>
       <c r="S7" t="n">
-        <v>2.590777936297667</v>
+        <v>2.590777936297606</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6351933385810661</v>
+        <v>0.6351933385810511</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008108851130822131</v>
+        <v>0.00810885113082194</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>147.3552403359688</v>
       </c>
       <c r="P3" t="n">
-        <v>53.46758630449617</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.17931689231644</v>
+        <v>16.17931689231578</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2130507013743</v>
+        <v>146.2130507013733</v>
       </c>
       <c r="L5" t="n">
-        <v>234.1948927224799</v>
+        <v>234.1948927224787</v>
       </c>
       <c r="M5" t="n">
-        <v>277.3612310351565</v>
+        <v>277.3612310351551</v>
       </c>
       <c r="N5" t="n">
-        <v>267.0694302247236</v>
+        <v>267.0694302247222</v>
       </c>
       <c r="O5" t="n">
-        <v>206.5420111469659</v>
+        <v>206.5420111469646</v>
       </c>
       <c r="P5" t="n">
-        <v>138.2238957657905</v>
+        <v>138.2238957657893</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.79861170724254</v>
+        <v>25.7986117072417</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>16.00661385416848</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>155.2576941028292</v>
       </c>
       <c r="L6" t="n">
-        <v>262.9128343353968</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>331.2414836209412</v>
+        <v>331.2414836209389</v>
       </c>
       <c r="N6" t="n">
-        <v>331.2414836209412</v>
+        <v>297.2713250170159</v>
       </c>
       <c r="O6" t="n">
-        <v>293.4559045255495</v>
+        <v>293.4559045255485</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>218.3494190755397</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.73073409322109</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>49.69205049256031</v>
+        <v>49.69205049255979</v>
       </c>
       <c r="M7" t="n">
-        <v>62.88736363663489</v>
+        <v>62.88736363663435</v>
       </c>
       <c r="N7" t="n">
-        <v>66.88155422675007</v>
+        <v>66.88155422674953</v>
       </c>
       <c r="O7" t="n">
-        <v>45.59786414437674</v>
+        <v>45.59786414437625</v>
       </c>
       <c r="P7" t="n">
-        <v>15.25858517230307</v>
+        <v>15.25858517230264</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35492,7 +35492,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>259.5907485445772</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>408.1301468599572</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>546.4549645786751</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>590.488811868311</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>178.6980756505691</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>190.4646720405066</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686865</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.10939847984405</v>
+        <v>40.10939847984407</v>
       </c>
       <c r="K28" t="n">
         <v>179.3040568441891</v>
@@ -36765,13 +36765,13 @@
         <v>300.8785061198822</v>
       </c>
       <c r="O28" t="n">
-        <v>263.8389798348814</v>
+        <v>263.8389798348815</v>
       </c>
       <c r="P28" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615329</v>
+        <v>66.8273282861533</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36929,10 +36929,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.10939847984405</v>
+        <v>40.10939847984407</v>
       </c>
       <c r="K31" t="n">
         <v>179.3040568441891</v>
@@ -36996,19 +36996,19 @@
         <v>277.8158151942071</v>
       </c>
       <c r="M31" t="n">
-        <v>301.911469493251</v>
+        <v>301.9114694932511</v>
       </c>
       <c r="N31" t="n">
         <v>300.8785061198822</v>
       </c>
       <c r="O31" t="n">
-        <v>263.8389798348814</v>
+        <v>263.8389798348815</v>
       </c>
       <c r="P31" t="n">
         <v>205.9852289260793</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615329</v>
+        <v>66.8273282861533</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>586.9317337484864</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2814067694342</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37312,22 +37312,22 @@
         <v>291.0298521604568</v>
       </c>
       <c r="M35" t="n">
-        <v>671.1575359942835</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>585.2594836392452</v>
       </c>
       <c r="P35" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>546.4549645786756</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N38" t="n">
-        <v>366.2340059961277</v>
+        <v>761.0865248261648</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q38" t="n">
-        <v>162.7790709908046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>777.6835120841787</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>736.4083257433306</v>
+        <v>521.7466306837437</v>
       </c>
       <c r="N41" t="n">
         <v>366.2340059961277</v>
@@ -37795,10 +37795,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.40751256795924</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292792</v>
+        <v>465.8113121037382</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,10 +38032,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>395.0521214323604</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>479.9653619572053</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
